--- a/va_facility_data_2025-02-20/Stonybrook VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stonybrook%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Stonybrook VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stonybrook%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7628c6d7c99d4bd8b711fcd9c05960e4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re35b2da8ad7f47f7bb4394f208519f7a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc9429e726ac84466a3d03af2f96f0ff0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R079196369512419491d6c33747c13ca9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6a57cd73eb91474a94cd67983be83ed4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1803b6b711bd4a6ca9d7babce952adbd"/>
   </x:sheets>
 </x:workbook>
 </file>
